--- a/Data_Driven_TC/Data.xlsx
+++ b/Data_Driven_TC/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b0222643/Documents/PythonAutomationAPI/restApi/Data_Driven_TC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7E2699-FEC2-BF44-92CA-56FAF2A24342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA0A9E-5033-FD4E-BD4C-AA5E4AA9C0BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{0F7A0E3F-4B4E-DE49-887B-E0A7075EDF7F}"/>
+    <workbookView xWindow="7800" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{0F7A0E3F-4B4E-DE49-887B-E0A7075EDF7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
